--- a/biology/Zoologie/Atractaspis_aterrima/Atractaspis_aterrima.xlsx
+++ b/biology/Zoologie/Atractaspis_aterrima/Atractaspis_aterrima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractaspis aterrima est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractaspis aterrima est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Burkina Faso ;
 au Burundi ;
 au Cameroun ;
@@ -557,11 +571,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractaspis aterrima[2] mesure jusqu'à 81 cm pour les mâles et jusqu'à 71 cm pour les femelles. Son dos est noir, gris noirâtre ou occasionnellement brun noirâtre. Le juvéniles tirent davantage sur le brun et les adultes peuvent être très brillants et noir bleuté.
-C'est un serpent venimeux[1] ovipare[2].
-Ce serpent se nourrit[2] de petits rongeurs et probablement de lézards, mais également d'autres serpents (Natriciteres sp., Typhlops sp.), de scinques (Panaspis sp.), de caeciliidés (Scolecomorphus kirkii), de geckos...
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractaspis aterrima mesure jusqu'à 81 cm pour les mâles et jusqu'à 71 cm pour les femelles. Son dos est noir, gris noirâtre ou occasionnellement brun noirâtre. Le juvéniles tirent davantage sur le brun et les adultes peuvent être très brillants et noir bleuté.
+C'est un serpent venimeux ovipare.
+Ce serpent se nourrit de petits rongeurs et probablement de lézards, mais également d'autres serpents (Natriciteres sp., Typhlops sp.), de scinques (Panaspis sp.), de caeciliidés (Scolecomorphus kirkii), de geckos...
 </t>
         </is>
       </c>
@@ -590,7 +606,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1863 : Third account of new species of snakes in the collection of the British Museum. Annals and magazine of natural history, ser. 3, vol. 12, p. 348-365 (texte intégral).</t>
         </is>
